--- a/data/trans_orig/P28$madre_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P28$madre_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D99175-346A-42BC-BFC0-B55C5A6D8CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0BA2E1-167C-4220-9E8E-42FD41F9C36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{809E9DEC-A865-4D1C-90F3-271506A7E83E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A2656C0-CDEA-4193-96B4-A5ECE96AEF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="317">
-  <si>
-    <t>Población según persona que fumaba habitualmente en el hogar donde se crió en 2012</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="358">
+  <si>
+    <t>Población según persona que fumaba habitualmente en el hogar donde se crió (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,7 +59,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Madre</t>
@@ -212,7 +212,7 @@
     <t>37,91%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>16,81%</t>
@@ -344,7 +344,7 @@
     <t>36,4%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,61%</t>
@@ -473,7 +473,7 @@
     <t>32,52%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,12%</t>
@@ -602,7 +602,7 @@
     <t>29,93%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -731,7 +731,73 @@
     <t>30,64%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -740,169 +806,226 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>61,41%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
   </si>
   <si>
     <t>63,72%</t>
@@ -1398,8 +1521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E0879F-36FF-40A1-8C63-07E14226BF47}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA88D3-8BD5-4B8B-912F-C8604A60A6E6}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2330,10 +2453,10 @@
         <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>236</v>
@@ -2408,10 +2531,10 @@
         <v>254</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2420,31 +2543,31 @@
         <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2453,54 +2576,54 @@
         <v>48</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>278</v>
@@ -2542,10 +2665,10 @@
         <v>288</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2554,31 +2677,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="I36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2587,31 +2710,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="I37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2620,45 +2743,213 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I38" s="7" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="F39" s="7" t="s">
         <v>316</v>
       </c>
+      <c r="G39" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>357</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
